--- a/commom/test_data.xlsx
+++ b/commom/test_data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="120">
   <si>
     <t>所属模块</t>
   </si>
@@ -109,6 +109,10 @@
   </si>
   <si>
     <t>test_interbankTransfer</t>
+  </si>
+  <si>
+    <t>1、弹框操作
+2、弹框列表操作</t>
   </si>
   <si>
     <t>支付包转账</t>
@@ -380,33 +384,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -432,25 +415,32 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -461,15 +451,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -477,7 +461,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -499,23 +483,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -529,9 +504,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -545,7 +542,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -560,25 +557,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -590,12 +683,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -608,139 +731,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -751,15 +742,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -774,30 +756,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -819,6 +777,32 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
@@ -828,11 +812,18 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -854,156 +845,159 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
@@ -1328,7 +1322,7 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -1474,160 +1468,166 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="2:3">
+    <row r="12" ht="28.5" spans="2:5">
       <c r="B12" t="s">
         <v>29</v>
       </c>
       <c r="C12" t="s">
         <v>30</v>
       </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="13" spans="2:3">
       <c r="B13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="2:3">
       <c r="B15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="2:3">
       <c r="B16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="2:3">
       <c r="B17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="2:3">
       <c r="B18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="2:3">
       <c r="B19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C21" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="2:3">
       <c r="B22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="2:3">
       <c r="B23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C24" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="2:3">
       <c r="B25" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C25" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="2:3">
       <c r="B26" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C26" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="2:3">
       <c r="B27" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C27" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="2:3">
       <c r="B28" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C28" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="2:3">
       <c r="B29" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C29" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1664,16 +1664,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1687,13 +1687,13 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1703,10 +1703,10 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1716,13 +1716,13 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1732,13 +1732,13 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F5" t="s">
         <v>81</v>
-      </c>
-      <c r="E5" t="s">
-        <v>82</v>
-      </c>
-      <c r="F5" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1748,13 +1748,13 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1764,13 +1764,13 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1780,13 +1780,13 @@
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1796,13 +1796,13 @@
         <v>8</v>
       </c>
       <c r="D9" t="s">
+        <v>91</v>
+      </c>
+      <c r="E9" t="s">
+        <v>92</v>
+      </c>
+      <c r="F9" t="s">
         <v>90</v>
-      </c>
-      <c r="E9" t="s">
-        <v>91</v>
-      </c>
-      <c r="F9" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1812,13 +1812,13 @@
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E10" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1828,13 +1828,13 @@
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E11" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1844,13 +1844,13 @@
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E12" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1860,13 +1860,13 @@
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F13" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1876,13 +1876,13 @@
         <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E14" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1892,13 +1892,13 @@
         <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E15" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F15" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -1930,55 +1930,55 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B2" s="3" t="s">
         <v>108</v>
       </c>
+      <c r="B2" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="C2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D2" s="3" t="s">
         <v>110</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B3" s="3" t="s">
         <v>112</v>
       </c>
+      <c r="B3" s="4" t="s">
+        <v>113</v>
+      </c>
       <c r="C3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D3" s="3" t="s">
         <v>114</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B4" s="3" t="s">
         <v>116</v>
       </c>
+      <c r="B4" s="4" t="s">
+        <v>117</v>
+      </c>
       <c r="C4" t="s">
-        <v>117</v>
-      </c>
-      <c r="D4" s="3" t="s">
         <v>118</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/commom/test_data.xlsx
+++ b/commom/test_data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="128">
   <si>
     <t>所属模块</t>
   </si>
@@ -45,48 +45,76 @@
     <t>是</t>
   </si>
   <si>
+    <t>1、字符串切分重构  处理%</t>
+  </si>
+  <si>
     <t>查询明细</t>
   </si>
   <si>
     <t>test_detailQuery</t>
   </si>
   <si>
+    <t>无</t>
+  </si>
+  <si>
     <t>转账限额设置</t>
   </si>
   <si>
     <t>test_transLimitSet</t>
   </si>
   <si>
+    <t>1、切换窗体</t>
+  </si>
+  <si>
     <t>日终余额设置</t>
   </si>
   <si>
     <t>test_dayBalanceQuery</t>
   </si>
   <si>
+    <t>1、日期控件</t>
+  </si>
+  <si>
     <t>电子对账</t>
   </si>
   <si>
     <t>test_reconciliation</t>
   </si>
   <si>
+    <t>1、下拉框操作
+2、日期控件操作
+3、查询列表断言</t>
+  </si>
+  <si>
     <t xml:space="preserve">回单/账单中心 </t>
   </si>
   <si>
     <t>test_receipt</t>
   </si>
   <si>
+    <t>1、单功能多案例
+2、公用操作部分再第一个案例中操作即可，余下的不用操作，引申出登录1次的场景，待实验</t>
+  </si>
+  <si>
     <t>余利宝转入</t>
   </si>
   <si>
     <t>test_wsbaoTransIn</t>
   </si>
   <si>
+    <t>1、WebDriverWait，显示等待
+2、录入金额转换成大写汉字金额</t>
+  </si>
+  <si>
     <t>余利宝转出</t>
   </si>
   <si>
     <t>test_wsbaoTransOut</t>
   </si>
   <si>
+    <t>1、反显格式化金额转换成大写汉字金额，使用split切分与join重构</t>
+  </si>
+  <si>
     <t>转账汇款</t>
   </si>
   <si>
@@ -112,7 +140,8 @@
   </si>
   <si>
     <t>1、弹框操作
-2、弹框列表操作</t>
+2、弹框列表操作
+3、不同类型下拉框操作</t>
   </si>
   <si>
     <t>支付包转账</t>
@@ -384,8 +413,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -405,9 +434,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -421,21 +471,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -444,8 +479,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -454,6 +498,28 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -483,14 +549,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -503,44 +570,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -557,181 +586,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -777,11 +806,53 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -800,58 +871,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -860,141 +889,144 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1329,7 +1361,7 @@
   <cols>
     <col min="2" max="2" width="20.4416666666667" customWidth="1"/>
     <col min="3" max="3" width="23.775" customWidth="1"/>
-    <col min="5" max="5" width="37.75" customWidth="1"/>
+    <col min="5" max="5" width="37.75" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1345,11 +1377,11 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1362,272 +1394,303 @@
       <c r="D2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="2:4">
+      <c r="E2" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5">
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4">
+        <v>11</v>
+      </c>
+      <c r="D3"/>
+      <c r="E3" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
       <c r="B4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="2:4">
+      <c r="E4" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
       <c r="B5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="2:4">
+      <c r="E5" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" ht="42.75" spans="2:5">
       <c r="B6" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="2:4">
+      <c r="E6" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" ht="57" spans="2:5">
       <c r="B7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="2:4">
+      <c r="E7" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" ht="28.5" spans="2:5">
       <c r="B8" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="2:4">
+      <c r="E8" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" ht="28.5" spans="2:5">
       <c r="B9" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s">
         <v>8</v>
       </c>
+      <c r="E9" s="3" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D10" t="s">
         <v>8</v>
       </c>
-      <c r="E10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4">
+      <c r="E10" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
       <c r="B11" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D11" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" ht="28.5" spans="2:5">
+      <c r="E11" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" ht="42.75" spans="2:5">
       <c r="B12" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="D12" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3">
+      <c r="E12" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5">
       <c r="B13" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>41</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="2:3">
       <c r="B15" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="2:3">
       <c r="B16" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="2:3">
       <c r="B17" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C17" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="2:3">
       <c r="B18" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="C18" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="2:3">
       <c r="B19" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="C19" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B20" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="C20" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="B21" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="C21" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="2:3">
       <c r="B22" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="C22" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="2:3">
       <c r="B23" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C23" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="B24" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="C24" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="2:3">
       <c r="B25" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="C25" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="2:3">
       <c r="B26" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="C26" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="2:3">
       <c r="B27" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="C27" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="2:3">
       <c r="B28" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="C28" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="2:3">
       <c r="B29" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="C29" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1664,36 +1727,36 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="E2" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1703,10 +1766,10 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="E3" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1716,13 +1779,13 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="E4" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="F4" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1732,13 +1795,13 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="E5" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="F5" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1748,13 +1811,13 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="E6" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="F6" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1764,13 +1827,13 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="E7" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="F7" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1780,13 +1843,13 @@
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E8" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="F8" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1796,13 +1859,13 @@
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="E9" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="F9" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1812,13 +1875,13 @@
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="E10" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="F10" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1828,13 +1891,13 @@
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E11" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="F11" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1844,13 +1907,13 @@
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="E12" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="F12" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1860,13 +1923,13 @@
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="E13" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="F13" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1876,13 +1939,13 @@
         <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="E14" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="F14" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1892,13 +1955,13 @@
         <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="E15" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="F15" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -1930,55 +1993,55 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="C1" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="D1" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>109</v>
+        <v>116</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>117</v>
       </c>
       <c r="C2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>111</v>
+        <v>118</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>113</v>
+        <v>120</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>121</v>
       </c>
       <c r="C3" t="s">
-        <v>114</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>115</v>
+        <v>122</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>117</v>
+        <v>124</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>125</v>
       </c>
       <c r="C4" t="s">
-        <v>118</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>119</v>
+        <v>126</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/commom/test_data.xlsx
+++ b/commom/test_data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="132">
   <si>
     <t>所属模块</t>
   </si>
@@ -33,6 +33,9 @@
     <t>知识点总结</t>
   </si>
   <si>
+    <t>注意事项</t>
+  </si>
+  <si>
     <t>账户信息</t>
   </si>
   <si>
@@ -54,7 +57,8 @@
     <t>test_detailQuery</t>
   </si>
   <si>
-    <t>无</t>
+    <t>1、下拉框操作
+2、日期控件操作</t>
   </si>
   <si>
     <t>转账限额设置</t>
@@ -133,6 +137,9 @@
     <t>test_peerTransfer</t>
   </si>
   <si>
+    <t>无</t>
+  </si>
+  <si>
     <t>跨行转账</t>
   </si>
   <si>
@@ -157,6 +164,12 @@
   </si>
   <si>
     <t>test_importUpdate</t>
+  </si>
+  <si>
+    <t>1、文件上传功能，autoit工具使用</t>
+  </si>
+  <si>
+    <t>注意如果脚本迁移路径了要修改autoit生成的exe文件脚本，以及调用的路径</t>
   </si>
   <si>
     <t>文件代发</t>
@@ -413,10 +426,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -428,29 +441,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -465,7 +456,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -495,16 +508,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -519,6 +532,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -528,28 +548,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -570,6 +568,21 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -586,31 +599,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -622,145 +761,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -771,6 +784,35 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -790,59 +832,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -853,6 +842,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -871,16 +869,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -889,144 +902,141 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1351,20 +1361,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
   <cols>
     <col min="2" max="2" width="20.4416666666667" customWidth="1"/>
     <col min="3" max="3" width="23.775" customWidth="1"/>
     <col min="5" max="5" width="37.75" style="3" customWidth="1"/>
+    <col min="6" max="6" width="45.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1380,317 +1391,328 @@
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" ht="28.5" spans="2:5">
       <c r="B3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3"/>
+        <v>12</v>
+      </c>
       <c r="E3" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="2:5">
       <c r="B4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="2:5">
       <c r="B5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" ht="42.75" spans="2:5">
       <c r="B6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" ht="57" spans="2:5">
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" ht="28.5" spans="2:5">
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" ht="28.5" spans="2:5">
       <c r="B9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="2:5">
       <c r="B11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" ht="42.75" spans="2:5">
       <c r="B12" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>39</v>
+        <v>9</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="2:5">
       <c r="B13" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>46</v>
+      </c>
+      <c r="D14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="2:3">
       <c r="B15" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C15" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="2:3">
       <c r="B16" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="2:3">
       <c r="B17" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C17" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="2:3">
       <c r="B18" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C18" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="2:3">
       <c r="B19" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C19" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B20" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C20" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B21" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C21" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="2:3">
       <c r="B22" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C22" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="2:3">
       <c r="B23" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C23" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B24" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C24" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="2:3">
       <c r="B25" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C25" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="2:3">
       <c r="B26" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C26" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="2:3">
       <c r="B27" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C27" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28" spans="2:3">
       <c r="B28" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C28" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" spans="2:3">
       <c r="B29" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C29" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1727,36 +1749,36 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1766,10 +1788,10 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E3" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1779,13 +1801,13 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E4" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F4" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1795,13 +1817,13 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E5" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="F5" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1811,13 +1833,13 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E6" t="s">
+        <v>97</v>
+      </c>
+      <c r="F6" t="s">
         <v>93</v>
-      </c>
-      <c r="F6" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1827,13 +1849,13 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1843,13 +1865,13 @@
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E8" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="F8" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1859,13 +1881,13 @@
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E9" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F9" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1875,13 +1897,13 @@
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E10" t="s">
+        <v>106</v>
+      </c>
+      <c r="F10" t="s">
         <v>102</v>
-      </c>
-      <c r="F10" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1891,13 +1913,13 @@
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E11" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F11" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1907,13 +1929,13 @@
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E12" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="F12" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1923,13 +1945,13 @@
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E13" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="F13" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1939,13 +1961,13 @@
         <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E14" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="F14" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1955,13 +1977,13 @@
         <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E15" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="F15" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -1993,55 +2015,55 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>117</v>
+        <v>120</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>121</v>
       </c>
       <c r="C2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>119</v>
+        <v>122</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>120</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>121</v>
+        <v>124</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>125</v>
       </c>
       <c r="C3" t="s">
-        <v>122</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>123</v>
+        <v>126</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>124</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>125</v>
+        <v>128</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>129</v>
       </c>
       <c r="C4" t="s">
-        <v>126</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>127</v>
+        <v>130</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>

--- a/commom/test_data.xlsx
+++ b/commom/test_data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="134">
   <si>
     <t>所属模块</t>
   </si>
@@ -148,7 +148,8 @@
   <si>
     <t>1、弹框操作
 2、弹框列表操作
-3、不同类型下拉框操作</t>
+3、不同类型下拉框操作
+4、单选框操作（同属性，取list值）</t>
   </si>
   <si>
     <t>支付包转账</t>
@@ -176,6 +177,13 @@
   </si>
   <si>
     <t>test_fileTransfers</t>
+  </si>
+  <si>
+    <t>1、单选框操作（相对路径，取list值）
+2、日期控件</t>
+  </si>
+  <si>
+    <t>注意日期控件如果有限制，在取值时要慎重，后续的迭代回归中有可能就是无效日期，待解决动态日期选择问题</t>
   </si>
   <si>
     <t>名册代发</t>
@@ -441,14 +449,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -456,14 +471,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -484,60 +500,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
@@ -545,17 +507,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -571,16 +532,63 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -599,181 +607,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -787,31 +795,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -827,6 +821,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -848,24 +851,20 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -884,16 +883,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -902,133 +910,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1364,7 +1372,7 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -1419,6 +1427,9 @@
       <c r="C3" t="s">
         <v>12</v>
       </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
       <c r="E3" s="3" t="s">
         <v>13</v>
       </c>
@@ -1538,7 +1549,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" ht="42.75" spans="2:5">
+    <row r="12" ht="57" spans="2:5">
       <c r="B12" t="s">
         <v>39</v>
       </c>
@@ -1586,133 +1597,148 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="2:3">
+    <row r="15" ht="28.5" spans="2:6">
       <c r="B15" t="s">
         <v>49</v>
       </c>
       <c r="C15" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="16" spans="2:3">
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5">
       <c r="B16" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C16" t="s">
-        <v>52</v>
+        <v>54</v>
+      </c>
+      <c r="D16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="2:3">
       <c r="B17" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C17" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="2:3">
       <c r="B18" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C18" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="2:3">
       <c r="B19" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C19" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B20" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C20" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B21" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C21" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="2:3">
       <c r="B22" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C22" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="2:3">
       <c r="B23" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C23" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B24" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C24" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="2:3">
       <c r="B25" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C25" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="2:3">
       <c r="B26" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C26" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="2:3">
       <c r="B27" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C27" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="2:3">
       <c r="B28" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C28" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29" spans="2:3">
       <c r="B29" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C29" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1749,16 +1775,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1772,13 +1798,13 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1788,10 +1814,10 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1801,13 +1827,13 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1817,13 +1843,13 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F5" t="s">
         <v>95</v>
-      </c>
-      <c r="F5" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1833,13 +1859,13 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E6" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1849,13 +1875,13 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1865,13 +1891,13 @@
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E8" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F8" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1881,13 +1907,13 @@
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E9" t="s">
+        <v>106</v>
+      </c>
+      <c r="F9" t="s">
         <v>104</v>
-      </c>
-      <c r="F9" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1897,13 +1923,13 @@
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E10" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F10" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1913,13 +1939,13 @@
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E11" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F11" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1929,13 +1955,13 @@
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F12" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1945,13 +1971,13 @@
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E13" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F13" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1961,13 +1987,13 @@
         <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E14" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F14" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1977,13 +2003,13 @@
         <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E15" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F15" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -2015,55 +2041,55 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C4" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>

--- a/commom/test_data.xlsx
+++ b/commom/test_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\09-AutoTest\pytest\pyautoTest-master\pyautoTest-master\commom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BE3CBA8-8AE8-4AFC-9EAB-5FCA28C5E59A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83F57BCD-2377-4E91-AD94-E67D6CF4A584}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,12 +17,20 @@
     <sheet name="test_transLimitSet" sheetId="3" r:id="rId2"/>
     <sheet name="test_transfer" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="137">
   <si>
     <t>所属模块</t>
   </si>
@@ -443,6 +451,12 @@
   </si>
   <si>
     <t>test_transfersQuery</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、3层页面跳转
+2、多个下拉框无法区分开，统一列表再单值判断操作
+3、多个日期控件无法区分，统一列表操作</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -792,7 +806,7 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1076,12 +1090,15 @@
         <v>134</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="55.2" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>57</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>135</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">

--- a/commom/test_data.xlsx
+++ b/commom/test_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\09-AutoTest\pytest\pyautoTest-master\pyautoTest-master\commom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83F57BCD-2377-4E91-AD94-E67D6CF4A584}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8633339C-7312-4C97-BE06-6C352A273F9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="137">
   <si>
     <t>所属模块</t>
   </si>
@@ -115,9 +115,6 @@
   </si>
   <si>
     <t>余利宝转入</t>
-  </si>
-  <si>
-    <t>test_wsbaoTransIn</t>
   </si>
   <si>
     <t>1、WebDriverWait，显示等待
@@ -218,12 +215,6 @@
     <t>余利宝</t>
   </si>
   <si>
-    <t>余利宝查询</t>
-  </si>
-  <si>
-    <t>test_transwsbaoQuery</t>
-  </si>
-  <si>
     <t>工单管理</t>
   </si>
   <si>
@@ -457,6 +448,18 @@
     <t>1、3层页面跳转
 2、多个下拉框无法区分开，统一列表再单值判断操作
 3、多个日期控件无法区分，统一列表操作</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>委托归集</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_wsbaoTransIn</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_wsbaoAuto</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -521,12 +524,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -806,7 +809,7 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -924,270 +927,273 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D8" t="s">
         <v>9</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D9" t="s">
         <v>9</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>32</v>
-      </c>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="55.2" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D10" t="s">
         <v>9</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="55.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>43</v>
+      </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C12" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D12" t="s">
         <v>9</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="F12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C13" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D13" t="s">
         <v>9</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>38</v>
+        <v>50</v>
+      </c>
+      <c r="F13" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>44</v>
-      </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C14" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D14" t="s">
         <v>9</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" t="s">
-        <v>50</v>
+        <v>54</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>128</v>
       </c>
       <c r="D15" t="s">
         <v>9</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F15" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="55.2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>131</v>
+        <v>56</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>132</v>
       </c>
       <c r="D17" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>38</v>
+      <c r="E17" s="5" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="E18" s="6" t="s">
+      <c r="A18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="C18" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>57</v>
-      </c>
-      <c r="C19" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="E19" s="6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>58</v>
-      </c>
+      <c r="D19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="C20" t="s">
-        <v>60</v>
+        <v>29</v>
+      </c>
+      <c r="D20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B21" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C21" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C22" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C23" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B24" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C24" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C25" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C26" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C27" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C28" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C29" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1223,241 +1229,241 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>84</v>
-      </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
       <c r="C5">
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
       <c r="C6">
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
       <c r="C7">
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
       <c r="C8">
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E8" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F8" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
       <c r="C9">
         <v>8</v>
       </c>
       <c r="D9" t="s">
+        <v>99</v>
+      </c>
+      <c r="E9" t="s">
+        <v>100</v>
+      </c>
+      <c r="F9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>101</v>
+      </c>
+      <c r="E10" t="s">
         <v>102</v>
       </c>
-      <c r="E9" t="s">
-        <v>103</v>
-      </c>
-      <c r="F9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10">
-        <v>9</v>
-      </c>
-      <c r="D10" t="s">
-        <v>104</v>
-      </c>
-      <c r="E10" t="s">
-        <v>105</v>
-      </c>
       <c r="F10" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
       <c r="C11">
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E11" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F11" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
       <c r="C12">
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E12" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F12" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
       <c r="C13">
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E13" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
       <c r="C14">
         <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E14" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F14" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
       <c r="C15">
         <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E15" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F15" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -1488,55 +1494,55 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>119</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>123</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>127</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C4" t="s">
-        <v>129</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/commom/test_data.xlsx
+++ b/commom/test_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\09-AutoTest\pytest\pyautoTest-master\pyautoTest-master\commom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8633339C-7312-4C97-BE06-6C352A273F9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E16009C3-5FE6-4EBE-A1BE-04A6E3672E76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="139">
   <si>
     <t>所属模块</t>
   </si>
@@ -221,9 +221,6 @@
     <t>工单查询</t>
   </si>
   <si>
-    <t>test_workOrderQuery</t>
-  </si>
-  <si>
     <t>工单配置</t>
   </si>
   <si>
@@ -233,18 +230,12 @@
     <t>工单审批</t>
   </si>
   <si>
-    <t>test_workApproval</t>
-  </si>
-  <si>
     <t>会员中心</t>
   </si>
   <si>
     <t>网银签约手机号变更</t>
   </si>
   <si>
-    <t>test_mobileModify</t>
-  </si>
-  <si>
     <t>个人信息修改</t>
   </si>
   <si>
@@ -252,9 +243,6 @@
   </si>
   <si>
     <t>操作员修改</t>
-  </si>
-  <si>
-    <t>test_operatorModify</t>
   </si>
   <si>
     <t>账户加挂解挂</t>
@@ -460,6 +448,31 @@
   </si>
   <si>
     <t>test_wsbaoAuto</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_billQuery</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_billCheck</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询结果列表，list属性变化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_mobileModify</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、用例命名带上主模块，这样好区分
+2、用例脚本中用注释注解每个页面，重点步骤/操作复杂的步骤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_operatorModify</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -517,7 +530,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -530,6 +543,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -806,10 +825,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1042,7 +1061,7 @@
         <v>54</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D15" t="s">
         <v>9</v>
@@ -1056,13 +1075,13 @@
         <v>55</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="55.2" x14ac:dyDescent="0.25">
@@ -1070,13 +1089,13 @@
         <v>56</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D17" t="s">
         <v>9</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -1084,10 +1103,10 @@
         <v>57</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
@@ -1095,7 +1114,7 @@
         <v>26</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D19" t="s">
         <v>9</v>
@@ -1125,78 +1144,151 @@
       <c r="B21" t="s">
         <v>59</v>
       </c>
-      <c r="C21" t="s">
-        <v>60</v>
+      <c r="C21" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D21" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" t="s">
         <v>61</v>
-      </c>
-      <c r="C22" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>63</v>
-      </c>
-      <c r="C23" t="s">
-        <v>64</v>
+        <v>62</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B24" t="s">
-        <v>66</v>
-      </c>
-      <c r="C24" t="s">
-        <v>67</v>
+        <v>64</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D24" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C25" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>70</v>
-      </c>
-      <c r="C26" t="s">
-        <v>71</v>
+        <v>67</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C27" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C28" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C29" t="s">
-        <v>77</v>
-      </c>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A31:E38"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1229,16 +1321,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1252,13 +1344,13 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1268,10 +1360,10 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1281,13 +1373,13 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1297,13 +1389,13 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1313,13 +1405,13 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E6" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F6" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1329,13 +1421,13 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1345,13 +1437,13 @@
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E8" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F8" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1361,13 +1453,13 @@
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E9" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F9" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1377,13 +1469,13 @@
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E10" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F10" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1393,13 +1485,13 @@
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E11" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F11" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1409,13 +1501,13 @@
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E12" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F12" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1425,13 +1517,13 @@
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E13" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F13" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1441,13 +1533,13 @@
         <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E14" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F14" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1457,13 +1549,13 @@
         <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E15" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F15" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -1494,55 +1586,55 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C4" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
